--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Epha7</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H2">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I2">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J2">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03932533333333333</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N2">
-        <v>0.117976</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O2">
-        <v>0.03588667238536742</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P2">
-        <v>0.03588667238536743</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q2">
-        <v>0.07983135736622221</v>
+        <v>0.029268503726</v>
       </c>
       <c r="R2">
-        <v>0.718482216296</v>
+        <v>0.263416533534</v>
       </c>
       <c r="S2">
-        <v>0.031494947141611</v>
+        <v>0.01013850446337834</v>
       </c>
       <c r="T2">
-        <v>0.03149494714161101</v>
+        <v>0.01013850446337834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H3">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I3">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J3">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>0.727233</v>
       </c>
       <c r="O3">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P3">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q3">
-        <v>0.4921000670603334</v>
+        <v>0.027857387298</v>
       </c>
       <c r="R3">
-        <v>4.428900603543</v>
+        <v>0.250716485682</v>
       </c>
       <c r="S3">
-        <v>0.1941425789536448</v>
+        <v>0.009649698806021983</v>
       </c>
       <c r="T3">
-        <v>0.1941425789536448</v>
+        <v>0.009649698806021982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H4">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I4">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J4">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.743817</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N4">
-        <v>2.231451</v>
+        <v>0.039967</v>
       </c>
       <c r="O4">
-        <v>0.6787766238980854</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P4">
-        <v>0.6787766238980855</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q4">
-        <v>1.509966113669</v>
+        <v>0.001530975902</v>
       </c>
       <c r="R4">
-        <v>13.589695023021</v>
+        <v>0.013778783118</v>
       </c>
       <c r="S4">
-        <v>0.5957095620642758</v>
+        <v>0.0005303245482263328</v>
       </c>
       <c r="T4">
-        <v>0.5957095620642761</v>
+        <v>0.0005303245482263326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,75 +711,75 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H5">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I5">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J5">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07026666666666666</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N5">
-        <v>0.2108</v>
+        <v>1.711849</v>
       </c>
       <c r="O5">
-        <v>0.06412245320095149</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P5">
-        <v>0.06412245320095149</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q5">
-        <v>0.1426429963111111</v>
+        <v>0.06557408779399999</v>
       </c>
       <c r="R5">
-        <v>1.2837869668</v>
+        <v>0.590166790146</v>
       </c>
       <c r="S5">
-        <v>0.05627530054800636</v>
+        <v>0.0227146282572297</v>
       </c>
       <c r="T5">
-        <v>0.05627530054800637</v>
+        <v>0.0227146282572297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.283071</v>
+        <v>0.114918</v>
       </c>
       <c r="H6">
-        <v>0.849213</v>
+        <v>0.344754</v>
       </c>
       <c r="I6">
-        <v>0.1223776112924619</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J6">
-        <v>0.1223776112924619</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.03932533333333333</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N6">
-        <v>0.117976</v>
+        <v>0.254057</v>
       </c>
       <c r="O6">
-        <v>0.03588667238536742</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P6">
-        <v>0.03588667238536743</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q6">
-        <v>0.011131861432</v>
+        <v>0.009731907441999999</v>
       </c>
       <c r="R6">
-        <v>0.100186752888</v>
+        <v>0.08758716697799999</v>
       </c>
       <c r="S6">
-        <v>0.00439172524375642</v>
+        <v>0.003371097749361659</v>
       </c>
       <c r="T6">
-        <v>0.00439172524375642</v>
+        <v>0.003371097749361657</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H7">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I7">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J7">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.242411</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N7">
-        <v>0.727233</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O7">
-        <v>0.2212142505155957</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P7">
-        <v>0.2212142505155957</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q7">
-        <v>0.06861952418100001</v>
+        <v>0.517027404337889</v>
       </c>
       <c r="R7">
-        <v>0.617575717629</v>
+        <v>4.653246639041001</v>
       </c>
       <c r="S7">
-        <v>0.02707167156195085</v>
+        <v>0.1790964340248148</v>
       </c>
       <c r="T7">
-        <v>0.02707167156195085</v>
+        <v>0.1790964340248148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H8">
+        <v>6.090071</v>
+      </c>
+      <c r="I8">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J8">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.283071</v>
-      </c>
-      <c r="H8">
-        <v>0.849213</v>
-      </c>
-      <c r="I8">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="J8">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>0.743817</v>
+        <v>0.242411</v>
       </c>
       <c r="N8">
-        <v>2.231451</v>
+        <v>0.727233</v>
       </c>
       <c r="O8">
-        <v>0.6787766238980854</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P8">
-        <v>0.6787766238980855</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q8">
-        <v>0.210553022007</v>
+        <v>0.4921000670603334</v>
       </c>
       <c r="R8">
-        <v>1.894977198063</v>
+        <v>4.428900603543</v>
       </c>
       <c r="S8">
-        <v>0.08306706183380948</v>
+        <v>0.1704616940116405</v>
       </c>
       <c r="T8">
-        <v>0.08306706183380949</v>
+        <v>0.1704616940116405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H9">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I9">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J9">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +992,462 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07026666666666666</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N9">
-        <v>0.2108</v>
+        <v>0.039967</v>
       </c>
       <c r="O9">
-        <v>0.06412245320095149</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P9">
-        <v>0.06412245320095149</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q9">
-        <v>0.0198904556</v>
+        <v>0.02704465196188889</v>
       </c>
       <c r="R9">
-        <v>0.1790141004</v>
+        <v>0.243401867657</v>
       </c>
       <c r="S9">
-        <v>0.007847152652945119</v>
+        <v>0.009368170207572038</v>
       </c>
       <c r="T9">
-        <v>0.007847152652945119</v>
+        <v>0.009368170207572036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H10">
+        <v>6.090071</v>
+      </c>
+      <c r="I10">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J10">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5706163333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.711849</v>
+      </c>
+      <c r="O10">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="P10">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="Q10">
+        <v>1.158364661253222</v>
+      </c>
+      <c r="R10">
+        <v>10.425281951279</v>
+      </c>
+      <c r="S10">
+        <v>0.401253354058648</v>
+      </c>
+      <c r="T10">
+        <v>0.401253354058648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.090071</v>
+      </c>
+      <c r="I11">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J11">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.08468566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.254057</v>
+      </c>
+      <c r="O11">
+        <v>0.07264630872272121</v>
+      </c>
+      <c r="P11">
+        <v>0.0726463087227212</v>
+      </c>
+      <c r="Q11">
+        <v>0.1719139075607778</v>
+      </c>
+      <c r="R11">
+        <v>1.547225168047</v>
+      </c>
+      <c r="S11">
+        <v>0.05955035950722168</v>
+      </c>
+      <c r="T11">
+        <v>0.05955035950722167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.994537</v>
+      </c>
+      <c r="I12">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J12">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2546903333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.7640710000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2184822215175269</v>
+      </c>
+      <c r="P12">
+        <v>0.2184822215175269</v>
+      </c>
+      <c r="Q12">
+        <v>0.08443298668077778</v>
+      </c>
+      <c r="R12">
+        <v>0.7598968801270001</v>
+      </c>
+      <c r="S12">
+        <v>0.02924728302933369</v>
+      </c>
+      <c r="T12">
+        <v>0.02924728302933369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.994537</v>
+      </c>
+      <c r="I13">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J13">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.242411</v>
+      </c>
+      <c r="N13">
+        <v>0.727233</v>
+      </c>
+      <c r="O13">
+        <v>0.2079485825281363</v>
+      </c>
+      <c r="P13">
+        <v>0.2079485825281362</v>
+      </c>
+      <c r="Q13">
+        <v>0.08036223623566667</v>
+      </c>
+      <c r="R13">
+        <v>0.723260126121</v>
+      </c>
+      <c r="S13">
+        <v>0.02783718971047381</v>
+      </c>
+      <c r="T13">
+        <v>0.0278371897104738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.994537</v>
+      </c>
+      <c r="I14">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J14">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.039967</v>
+      </c>
+      <c r="O14">
+        <v>0.01142836064631559</v>
+      </c>
+      <c r="P14">
+        <v>0.01142836064631558</v>
+      </c>
+      <c r="Q14">
+        <v>0.004416517808777778</v>
+      </c>
+      <c r="R14">
+        <v>0.039748660279</v>
+      </c>
+      <c r="S14">
+        <v>0.001529865890517216</v>
+      </c>
+      <c r="T14">
+        <v>0.001529865890517216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.994537</v>
+      </c>
+      <c r="I15">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J15">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5706163333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.711849</v>
+      </c>
+      <c r="O15">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="P15">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="Q15">
+        <v>0.1891663521014444</v>
+      </c>
+      <c r="R15">
+        <v>1.702497168913</v>
+      </c>
+      <c r="S15">
+        <v>0.06552654426942241</v>
+      </c>
+      <c r="T15">
+        <v>0.06552654426942241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.994537</v>
+      </c>
+      <c r="I16">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J16">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.08468566666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.254057</v>
+      </c>
+      <c r="O16">
+        <v>0.07264630872272121</v>
+      </c>
+      <c r="P16">
+        <v>0.0726463087227212</v>
+      </c>
+      <c r="Q16">
+        <v>0.02807434295655556</v>
+      </c>
+      <c r="R16">
+        <v>0.252669086609</v>
+      </c>
+      <c r="S16">
+        <v>0.009724851466137873</v>
+      </c>
+      <c r="T16">
+        <v>0.009724851466137868</v>
       </c>
     </row>
   </sheetData>
